--- a/list/template.xlsx
+++ b/list/template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usp1-my.sharepoint.com/personal/oi23ryamazaki_ec_usp_ac_jp/Documents/2021/ProjectOhe/list/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yamazaki_Rei\misc\BillGenerator\src\list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_A5F846F39CAF4495CE3CE2A0ADE9A237858709D2" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D7E316A9-26FE-A64A-BE98-15F9CF21D6E8}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2340" windowWidth="23720" windowHeight="14580" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2340" windowWidth="23715" windowHeight="14580" tabRatio="903"/>
   </bookViews>
   <sheets>
     <sheet name="原本" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">原本!$A$1:$L$49</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>３月分請求書</t>
   </si>
@@ -145,21 +144,21 @@
     <rPh sb="3" eb="4">
       <t xml:space="preserve">ネン </t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>月</t>
     <rPh sb="0" eb="1">
       <t xml:space="preserve">ツキ </t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>個人番号</t>
     <rPh sb="0" eb="4">
       <t xml:space="preserve">コジンバンゴウ </t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>月の固定費系</t>
@@ -175,7 +174,7 @@
     <rPh sb="5" eb="6">
       <t xml:space="preserve">ケイ </t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>特別費用系</t>
@@ -188,42 +187,31 @@
     <rPh sb="4" eb="5">
       <t xml:space="preserve">ケイ </t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>郵便番号</t>
     <rPh sb="0" eb="4">
       <t>ユウｂ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>住所</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ジュウショ </t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>メッセージ1（一個でいい）</t>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">イッコデイイ </t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>メッセージ2</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>メッセージ3</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>メッセージ1</t>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
@@ -232,7 +220,7 @@
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="179" formatCode="000000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -265,12 +253,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -292,8 +274,22 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,8 +307,14 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -449,8 +451,191 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -458,8 +643,39 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
@@ -470,7 +686,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -478,22 +696,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,195 +710,31 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -712,179 +757,218 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="7" fillId="3" borderId="21" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="9" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="9" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="7" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="7" fillId="3" borderId="22" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="7" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="7" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -893,13 +977,13 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="29" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="30" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -908,15 +992,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="良い" xfId="3" builtinId="26"/>
+    <cellStyle name="良い" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -1343,103 +1426,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScale="117" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="8" width="6.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="1" customWidth="1"/>
-    <col min="10" max="12" width="6.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="34.5" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="1" max="8" width="6.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="1" customWidth="1"/>
+    <col min="10" max="12" width="6.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="21.375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="37.125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" customHeight="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-    </row>
-    <row r="2" spans="1:17" ht="21" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+    </row>
+    <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-    </row>
-    <row r="3" spans="1:17" ht="21" customHeight="1">
-      <c r="A3" s="33" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+    </row>
+    <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="21" t="s">
         <v>40</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:17" ht="6" customHeight="1"/>
-    <row r="5" spans="1:17">
+    <row r="4" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="H5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="60" t="s">
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="64" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="27" t="s">
+      <c r="L6" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="64"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="60"/>
-    </row>
-    <row r="8" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" s="77"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="64"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1448,584 +1541,597 @@
         <v>4</v>
       </c>
       <c r="I8"/>
-      <c r="Q8" s="60"/>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="Q8" s="64"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="H9"/>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Q9" s="60"/>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="Q9" s="64"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="H10"/>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Q10" s="60"/>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="Q10" s="64"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="H11"/>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="Q11" s="60"/>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="Q11" s="64"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="H12" s="4"/>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="18"/>
-    </row>
-    <row r="17" spans="1:14" ht="22.5" customHeight="1">
+      <c r="I14" s="13"/>
+    </row>
+    <row r="17" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="26" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="37" t="s">
+      <c r="I17" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="37" t="s">
+      <c r="J17" s="43"/>
+      <c r="K17" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="39"/>
-    </row>
-    <row r="18" spans="1:14" ht="22.5" customHeight="1">
+      <c r="L17" s="44"/>
+    </row>
+    <row r="18" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="42">
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="47">
         <f t="shared" ref="K18:K26" si="0">IF(B18="","",H18*I18)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="43"/>
-    </row>
-    <row r="19" spans="1:14" ht="22.5" customHeight="1">
+      <c r="L18" s="48"/>
+    </row>
+    <row r="19" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42" t="str">
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L19" s="43"/>
-    </row>
-    <row r="20" spans="1:14" ht="22.5" customHeight="1">
+      <c r="L19" s="48"/>
+    </row>
+    <row r="20" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="43"/>
-    </row>
-    <row r="21" spans="1:14" ht="22.5" customHeight="1">
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="48"/>
+    </row>
+    <row r="21" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="47"/>
-    </row>
-    <row r="22" spans="1:14" ht="22.5" customHeight="1">
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="50"/>
+      <c r="M21"/>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="51">
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54">
         <f>SUM(K18:L21)</f>
         <v>0</v>
       </c>
-      <c r="L22" s="52"/>
-    </row>
-    <row r="23" spans="1:14" ht="22.5" customHeight="1">
+      <c r="L22" s="55"/>
+    </row>
+    <row r="23" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="42">
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L23" s="43"/>
-    </row>
-    <row r="24" spans="1:14" ht="22.5" customHeight="1">
+      <c r="L23" s="48"/>
+    </row>
+    <row r="24" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="42" t="str">
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L24" s="43"/>
-    </row>
-    <row r="25" spans="1:14" ht="22.5" customHeight="1">
+      <c r="L24" s="48"/>
+    </row>
+    <row r="25" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="42" t="str">
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L25" s="43"/>
-    </row>
-    <row r="26" spans="1:14" ht="22.5" customHeight="1">
+      <c r="L25" s="48"/>
+    </row>
+    <row r="26" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="42" t="str">
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L26" s="43"/>
-    </row>
-    <row r="27" spans="1:14" ht="22.5" customHeight="1">
+      <c r="L26" s="48"/>
+    </row>
+    <row r="27" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="43"/>
-    </row>
-    <row r="28" spans="1:14" ht="22.5" customHeight="1">
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="48"/>
+    </row>
+    <row r="28" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="65">
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="78">
         <f>SUM(K23:L27)</f>
         <v>0</v>
       </c>
-      <c r="L28" s="66"/>
-    </row>
-    <row r="29" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A29" s="67" t="s">
+      <c r="L28" s="79"/>
+    </row>
+    <row r="29" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="70">
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="83">
         <f>K22+K28</f>
         <v>0</v>
       </c>
-      <c r="L29" s="71"/>
-    </row>
-    <row r="31" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A31" s="72" t="s">
+      <c r="L29" s="84"/>
+    </row>
+    <row r="30" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="74"/>
-    </row>
-    <row r="32" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A32" s="61" t="s">
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="87"/>
+    </row>
+    <row r="32" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="63"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="61"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="63"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="61"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="63"/>
-    </row>
-    <row r="35" spans="1:12" ht="18" customHeight="1">
-      <c r="A35" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="63"/>
-    </row>
-    <row r="36" spans="1:12" ht="18" customHeight="1">
-      <c r="A36" s="61"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="63"/>
-    </row>
-    <row r="37" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A37" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="63"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="61"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="63"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="61"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="63"/>
-    </row>
-    <row r="41" spans="1:12" ht="15">
-      <c r="A41" s="53" t="s">
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="67"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A33" s="68"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="70"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A34" s="68"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="70"/>
+    </row>
+    <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="71"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="73"/>
+    </row>
+    <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="71"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="73"/>
+    </row>
+    <row r="37" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="71"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="73"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A38" s="71"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="73"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39" s="74"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="76"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A40" s="29"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="31"/>
+    </row>
+    <row r="41" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A41" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="55"/>
-    </row>
-    <row r="42" spans="1:12" ht="15">
-      <c r="A42" s="56" t="s">
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="59"/>
+    </row>
+    <row r="42" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="58"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="8" t="s">
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="62"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A43" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="19"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="10"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9" t="s">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="33"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A44" s="34"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9" t="s">
+      <c r="E44" s="8"/>
+      <c r="F44" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9" t="s">
+      <c r="G44" s="8"/>
+      <c r="H44" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I44" s="20">
+      <c r="I44" s="14">
         <v>8266001</v>
       </c>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9" t="s">
+      <c r="J44" s="8"/>
+      <c r="K44" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L44" s="19"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="11"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="23" t="s">
+      <c r="L44" s="33"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A45" s="35"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="13" t="s">
+      <c r="E45" s="8"/>
+      <c r="F45" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="9" t="s">
+      <c r="G45" s="10"/>
+      <c r="H45" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I45" s="20">
+      <c r="I45" s="14">
         <v>107773714</v>
       </c>
-      <c r="J45" s="9"/>
-      <c r="K45" s="13" t="s">
+      <c r="J45" s="8"/>
+      <c r="K45" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L45" s="19"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="11"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="12" t="s">
+      <c r="L45" s="33"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A46" s="35"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="13" t="s">
+      <c r="E46" s="8"/>
+      <c r="F46" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="9" t="s">
+      <c r="G46" s="10"/>
+      <c r="H46" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I46" s="20">
+      <c r="I46" s="14">
         <v>364004</v>
       </c>
-      <c r="J46" s="9"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="19"/>
-    </row>
-    <row r="47" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A47" s="14" t="s">
+      <c r="J46" s="8"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="33"/>
+    </row>
+    <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="19"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="14" t="s">
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="33"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A48" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="19"/>
-    </row>
-    <row r="49" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A49" s="17"/>
-      <c r="B49" s="59" t="s">
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="33"/>
+    </row>
+    <row r="49" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="37"/>
+      <c r="B49" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="22"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="48">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="A41:L41"/>
     <mergeCell ref="A42:L42"/>
     <mergeCell ref="B49:K49"/>
@@ -2051,7 +2157,6 @@
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M21:N21"/>
     <mergeCell ref="B22:J22"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="B23:G23"/>
@@ -2074,10 +2179,10 @@
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="K17:L17"/>
   </mergeCells>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="7"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.235416666666667" right="0.235416666666667" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
-  <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
